--- a/whatsapp-bulk-messenger/whatsapp_urls.xlsx
+++ b/whatsapp-bulk-messenger/whatsapp_urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\whatsapp-bulk-messenger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF1F127-F90E-499E-941D-1544C29E9B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB2975B-1D18-4B88-A4BF-1C084A60671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81FE0371-135A-421D-A899-9403E5273163}"/>
   </bookViews>
@@ -36,19 +36,172 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>urls</t>
   </si>
   <si>
-    <t>https://api.whatsapp.com/send?phone=62812345678&amp;text=message</t>
+    <t>https://api.whatsapp.com/send?phone=6282188118121&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281805468408&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6285252125020&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6287880712998&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6282137027102&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6282116000270&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6285754389354&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281933555845&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6285277169770&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=628164649864&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281221023229&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6285377883094&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281362299979&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281254711447&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=628157967212&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281221791046&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281615705522&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281264187451&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6285171558883&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=628114301055&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=628125905503&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=62811415071&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6282259229760&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=628113353358&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281332992810&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6282261187772&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6285266828942&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281331439627&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=628124495503&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281395080623&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6285220202250&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6282144063700&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6287822320028&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6282242506478&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=628116009333&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=628123891238&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6287738278826&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281292453138&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281318818481&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6287723512562&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281804559424&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=62811299970&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=628991770897&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281360860265&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6281232159776&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6285730020879&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6285800716611&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=6282137408855&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=62885655378819&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=62881225555639&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=62888296306185&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
+  </si>
+  <si>
+    <t>https://api.whatsapp.com/send?phone=62885646217946&amp;text=Yth.%20Ibu%2FBpk%20Peserta%20Pelatihan%20AIBI%2C%20terima%20kasih%20sudah%20mendaftar.%20Kami%20mengundang%20untuk%20hadir%20pada%0A%0ATopic%3A%20Technical%20Meeting%20Pelatihan%C2%A0AIBI%0ATime%3A%20Selasa%2C%2030%20Mei%202023%2014%3A00%20WIB%0A%0AJoin%20Zoom%20Meeting%0Ahttps%3A%2F%2Ftelkomsel.zoom.us%2Fj%2F95626026143%3Fpwd%3DajYyOEdJaVpaYUdxZENPcmZ1d2hOUT09%0A%0AMeeting%20ID%3A%20956%202602%206143%0APasscode%3A%C2%A0880562%20%0A%0ATerimakasih</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +213,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,7 +247,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A076C112-39D5-4A59-928A-9F2A70ABAC53}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,10 +581,263 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E4B02274-09AC-4912-8551-9636EB625B6B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>